--- a/public/them/export-tamu.xlsx
+++ b/public/them/export-tamu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/KODING/ERA/dafha/public/them/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DATA/KODING/ERA/GIT-DAFA/public/them/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0558F341-E4F0-644E-90D0-9D36B904B9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE447D13-B498-0E4E-8216-CA95F013F0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>MULAI</t>
   </si>
@@ -67,23 +67,20 @@
     <t>KEPERLUAN</t>
   </si>
   <si>
-    <t>PROVOS DATE</t>
+    <t>KELUAR DATE</t>
+  </si>
+  <si>
+    <t>KATEGORI TAMU</t>
   </si>
   <si>
     <t>MASUK DATE</t>
-  </si>
-  <si>
-    <t>KELUAR DATE</t>
-  </si>
-  <si>
-    <t>KATEGORI TAMU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -175,19 +172,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -494,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="9" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="9"/>
   <cols>
     <col min="1" max="2" width="8.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.33203125" style="1" customWidth="1"/>
@@ -514,157 +511,151 @@
     <col min="11" max="11" width="7.33203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="5.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="8.33203125" style="1" customWidth="1"/>
-    <col min="14" max="15" width="6.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="6.33203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="8.33203125" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.83203125" style="2"/>
+    <col min="14" max="14" width="6.5" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+    <row r="1" spans="1:16">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:16">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+    <row r="3" spans="1:16">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:17" ht="10" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:16" ht="20">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="5" t="s">
+      <c r="K4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="P4" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4">
+        <v>7</v>
+      </c>
+      <c r="H5" s="4">
+        <v>8</v>
+      </c>
+      <c r="I5" s="4">
+        <v>9</v>
+      </c>
+      <c r="J5" s="4">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4">
+        <v>11</v>
+      </c>
+      <c r="L5" s="4">
+        <v>12</v>
+      </c>
+      <c r="M5" s="4">
+        <v>13</v>
+      </c>
+      <c r="N5" s="4">
+        <v>14</v>
+      </c>
+      <c r="O5" s="4">
+        <v>15</v>
+      </c>
+      <c r="P5" s="4">
         <v>16</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7">
-        <v>2</v>
-      </c>
-      <c r="C5" s="7">
-        <v>3</v>
-      </c>
-      <c r="D5" s="7">
-        <v>4</v>
-      </c>
-      <c r="E5" s="7">
-        <v>5</v>
-      </c>
-      <c r="F5" s="7">
-        <v>6</v>
-      </c>
-      <c r="G5" s="7">
-        <v>7</v>
-      </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>9</v>
-      </c>
-      <c r="J5" s="7">
-        <v>10</v>
-      </c>
-      <c r="K5" s="7">
-        <v>11</v>
-      </c>
-      <c r="L5" s="7">
-        <v>12</v>
-      </c>
-      <c r="M5" s="7">
-        <v>13</v>
-      </c>
-      <c r="N5" s="7">
-        <v>14</v>
-      </c>
-      <c r="O5" s="7">
-        <v>15</v>
-      </c>
-      <c r="P5" s="7">
-        <v>16</v>
-      </c>
-      <c r="Q5" s="7">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="7">
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape"/>
